--- a/results/results/20240723/table.xlsx
+++ b/results/results/20240723/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ying-Ju Chen\Lab\robot xarm\GitHub\my-project\results\results\20240723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F468E3-E0EB-4717-BC2E-F5C888DFEF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEB952-2A26-4CBE-987A-B5F522ACBAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,304 +550,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0993999999999999</c:v>
+                  <c:v>1.0647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43240000000000001</c:v>
+                  <c:v>0.40310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32700000000000001</c:v>
+                  <c:v>0.29409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27850000000000003</c:v>
+                  <c:v>0.26919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2311</c:v>
+                  <c:v>0.22409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22559999999999999</c:v>
+                  <c:v>0.22650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22339999999999999</c:v>
+                  <c:v>0.18890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1943</c:v>
+                  <c:v>0.1719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2024</c:v>
+                  <c:v>0.15140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1978</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1658</c:v>
+                  <c:v>0.17510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14979999999999999</c:v>
+                  <c:v>0.13969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14149999999999999</c:v>
+                  <c:v>0.1341</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14749999999999999</c:v>
+                  <c:v>0.12540000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13009999999999999</c:v>
+                  <c:v>0.1203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1293</c:v>
+                  <c:v>0.1113</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.1077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1142</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1055</c:v>
+                  <c:v>9.3700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10580000000000001</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.7600000000000006E-2</c:v>
+                  <c:v>9.11E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6800000000000002E-2</c:v>
+                  <c:v>9.6199999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>9.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>9.0499999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.2399999999999996E-2</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1500000000000003E-2</c:v>
+                  <c:v>0.10349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1299999999999997E-2</c:v>
+                  <c:v>9.0899999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.7799999999999994E-2</c:v>
+                  <c:v>7.7399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.4099999999999994E-2</c:v>
+                  <c:v>8.0299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5500000000000002E-2</c:v>
+                  <c:v>7.3400000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9799999999999996E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.3400000000000007E-2</c:v>
+                  <c:v>7.1599999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4600000000000005E-2</c:v>
+                  <c:v>6.7799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.0600000000000001E-2</c:v>
+                  <c:v>5.91E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.7200000000000001E-2</c:v>
+                  <c:v>5.9299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8099999999999999E-2</c:v>
+                  <c:v>5.6599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7299999999999997E-2</c:v>
+                  <c:v>5.4600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.3400000000000003E-2</c:v>
+                  <c:v>5.2900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.3800000000000001E-2</c:v>
+                  <c:v>5.1499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>4.8399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5699999999999995E-2</c:v>
+                  <c:v>5.0500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.2400000000000006E-2</c:v>
+                  <c:v>4.7100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.4600000000000005E-2</c:v>
+                  <c:v>4.9500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>5.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>6.2E-2</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.6499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.5800000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.9000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="46">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.2700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.2299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.4100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>7.2700000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.3200000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.6099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.2200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.1900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.0799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.6699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.82E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.7899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.6300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.1399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.3900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.3299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.3900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.8399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.6400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.2299999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.9699999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0399999999999998E-2</c:v>
+                  <c:v>6.2899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.8300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.3099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.2599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>3.9800000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.8399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.7699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.5700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.44E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.73E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.6600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.5700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.8300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.4700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.44E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.5200000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.3399999999999999E-2</c:v>
+                  <c:v>3.6200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.09E-2</c:v>
+                  <c:v>3.6299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0300000000000001E-2</c:v>
+                  <c:v>3.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2199999999999999E-2</c:v>
+                  <c:v>3.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>3.1399999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.0599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.8899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.8199999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.98E-2</c:v>
+                  <c:v>2.9600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.92E-2</c:v>
+                  <c:v>3.04E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0200000000000001E-2</c:v>
+                  <c:v>3.0499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.0200000000000001E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.1099999999999999E-2</c:v>
+                  <c:v>2.9600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2800000000000003E-2</c:v>
+                  <c:v>3.0099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3300000000000003E-2</c:v>
+                  <c:v>2.8799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.4700000000000002E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,304 +1163,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.80179999999999996</c:v>
+                  <c:v>0.80559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87219999999999998</c:v>
+                  <c:v>0.87290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87590000000000001</c:v>
+                  <c:v>0.89119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88149999999999995</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89639999999999997</c:v>
+                  <c:v>0.90749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90269999999999995</c:v>
+                  <c:v>0.90790000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90149999999999997</c:v>
+                  <c:v>0.91790000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9173</c:v>
+                  <c:v>0.92549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91339999999999999</c:v>
+                  <c:v>0.93579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91679999999999995</c:v>
+                  <c:v>0.93789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92679999999999996</c:v>
+                  <c:v>0.9284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9355</c:v>
+                  <c:v>0.94269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93879999999999997</c:v>
+                  <c:v>0.94410000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9385</c:v>
+                  <c:v>0.94689999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9425</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94159999999999999</c:v>
+                  <c:v>0.95289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95130000000000003</c:v>
+                  <c:v>0.95469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.95799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95369999999999999</c:v>
+                  <c:v>0.95960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9536</c:v>
+                  <c:v>0.96179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95799999999999996</c:v>
+                  <c:v>0.96230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96409999999999996</c:v>
+                  <c:v>0.96060000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96260000000000001</c:v>
+                  <c:v>0.9577</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96060000000000001</c:v>
+                  <c:v>0.96079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96450000000000002</c:v>
+                  <c:v>0.95979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96640000000000004</c:v>
+                  <c:v>0.96099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96679999999999999</c:v>
+                  <c:v>0.96709999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96409999999999996</c:v>
+                  <c:v>0.96619999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.96140000000000003</c:v>
+                  <c:v>0.96919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>0.97019999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.96909999999999996</c:v>
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9728</c:v>
+                  <c:v>0.97140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97389999999999999</c:v>
+                  <c:v>0.9748</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.97529999999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>0.97570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97609999999999997</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97719999999999996</c:v>
+                  <c:v>0.97860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97829999999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97619999999999996</c:v>
+                  <c:v>0.97940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.97219999999999995</c:v>
+                  <c:v>0.97950000000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0.97929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.98209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.98160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.98170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.98140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.97160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.97050000000000003</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.97289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.97460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.97019999999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.96660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9677</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.96919999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.97289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9768</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.97719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.97719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97940000000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.9778</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.97899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.98019999999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.98029999999999995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97940000000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="74">
+                  <c:v>0.97660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.97889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>0.98229999999999995</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.98129999999999995</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.98240000000000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.98360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.9829</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
+                  <c:v>0.98270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.9819</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>0.98309999999999997</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.9829</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.98319999999999996</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.98340000000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.98419999999999996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.98460000000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.98419999999999996</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.98370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>0.98350000000000004</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.9839</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.98460000000000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.98360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.98460000000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.98460000000000003</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.98519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.9859</c:v>
-                </c:pt>
                 <c:pt idx="84">
+                  <c:v>0.98409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0.9869</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.98719999999999997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.98629999999999995</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.98619999999999997</c:v>
+                  <c:v>0.98729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98780000000000001</c:v>
+                  <c:v>0.9869</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>0.98640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9869</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.98629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.98760000000000003</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.98709999999999998</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.98699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9869</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98640000000000005</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.98499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98529999999999995</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.98529999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,304 +1802,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.77849999999999997</c:v>
+                  <c:v>0.78049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87739999999999996</c:v>
+                  <c:v>0.87929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85219999999999996</c:v>
+                  <c:v>0.86890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86050000000000004</c:v>
+                  <c:v>0.88249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86980000000000002</c:v>
+                  <c:v>0.88649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89449999999999996</c:v>
+                  <c:v>0.90249999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90010000000000001</c:v>
+                  <c:v>0.91259999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90549999999999997</c:v>
+                  <c:v>0.91539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89870000000000005</c:v>
+                  <c:v>0.93320000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91449999999999998</c:v>
+                  <c:v>0.92479999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91169999999999995</c:v>
+                  <c:v>0.92730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92390000000000005</c:v>
+                  <c:v>0.9254</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92290000000000005</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93840000000000001</c:v>
+                  <c:v>0.93810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93200000000000005</c:v>
+                  <c:v>0.94469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94189999999999996</c:v>
+                  <c:v>0.93759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94220000000000004</c:v>
+                  <c:v>0.94869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94799999999999995</c:v>
+                  <c:v>0.94989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94830000000000003</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94989999999999997</c:v>
+                  <c:v>0.95669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94799999999999995</c:v>
+                  <c:v>0.95620000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9667</c:v>
+                  <c:v>0.94810000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95389999999999997</c:v>
+                  <c:v>0.95189999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95699999999999996</c:v>
+                  <c:v>0.96250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95660000000000001</c:v>
+                  <c:v>0.94489999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95820000000000005</c:v>
+                  <c:v>0.95420000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96440000000000003</c:v>
+                  <c:v>0.96430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96040000000000003</c:v>
+                  <c:v>0.9617</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9536</c:v>
+                  <c:v>0.95850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.95630000000000004</c:v>
+                  <c:v>0.96150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.97270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.96079999999999999</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.96689999999999998</c:v>
+                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97030000000000005</c:v>
+                  <c:v>0.96909999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.96870000000000001</c:v>
+                  <c:v>0.96909999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97089999999999999</c:v>
+                  <c:v>0.96950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.96989999999999998</c:v>
+                  <c:v>0.97130000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.96989999999999998</c:v>
+                  <c:v>0.97060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9718</c:v>
+                  <c:v>0.97150000000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96260000000000001</c:v>
+                  <c:v>0.97160000000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.96120000000000005</c:v>
+                  <c:v>0.97570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.9677</c:v>
+                  <c:v>0.97009999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0.97250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.96550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9698</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.97060000000000002</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.96309999999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.95720000000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9597</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.96489999999999998</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.96699999999999997</c:v>
+                  <c:v>0.96889999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>0.97219999999999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.96679999999999999</c:v>
+                  <c:v>0.97340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.9718</c:v>
+                  <c:v>0.97370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.97130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.97470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.97750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0.97540000000000004</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.96740000000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.96689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97009999999999996</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.96909999999999996</c:v>
+                  <c:v>0.97319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97250000000000003</c:v>
+                  <c:v>0.97070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.98160000000000003</c:v>
+                  <c:v>0.97460000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.97030000000000005</c:v>
+                  <c:v>0.97829999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.97040000000000004</c:v>
+                  <c:v>0.97240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.97789999999999999</c:v>
+                  <c:v>0.97209999999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>0.96189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.97309999999999997</c:v>
+                  <c:v>0.97199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>0.95509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95740000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.96650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.96860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96140000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9728</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.98119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.9758</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9768</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0.97760000000000002</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.97719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.97650000000000003</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.97819999999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.97209999999999996</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="91">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.97770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0.97709999999999997</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.98070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.97319999999999995</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.98180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.97289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.97219999999999995</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.97889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.97529999999999994</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.97570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.97729999999999995</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.98150000000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.97709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.97870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="95">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>0.9798</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.97789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.9778</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="97">
+                  <c:v>0.98170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>0.97989999999999999</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.97609999999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.97789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.9829</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.97619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.97650000000000003</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.98119999999999996</c:v>
+                  <c:v>0.97850000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,304 +2441,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.8014</c:v>
+                  <c:v>0.8075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86629999999999996</c:v>
+                  <c:v>0.86860000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86990000000000001</c:v>
+                  <c:v>0.88429999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87829999999999997</c:v>
+                  <c:v>0.88729999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89149999999999996</c:v>
+                  <c:v>0.90100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89580000000000004</c:v>
+                  <c:v>0.89900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89680000000000004</c:v>
+                  <c:v>0.91310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91190000000000004</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9052</c:v>
+                  <c:v>0.92910000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90900000000000003</c:v>
+                  <c:v>0.92989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92149999999999999</c:v>
+                  <c:v>0.92010000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93049999999999999</c:v>
+                  <c:v>0.93320000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93179999999999996</c:v>
+                  <c:v>0.9355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93149999999999999</c:v>
+                  <c:v>0.93969999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93720000000000003</c:v>
+                  <c:v>0.94110000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93710000000000004</c:v>
+                  <c:v>0.94520000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94230000000000003</c:v>
+                  <c:v>0.94550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94479999999999997</c:v>
+                  <c:v>0.94920000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94769999999999999</c:v>
+                  <c:v>0.9526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94740000000000002</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95079999999999998</c:v>
+                  <c:v>0.9536</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95550000000000002</c:v>
+                  <c:v>0.95169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95520000000000005</c:v>
+                  <c:v>0.9506</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.95369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.95350000000000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.95709999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.95860000000000001</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95940000000000003</c:v>
+                  <c:v>0.95979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95630000000000004</c:v>
+                  <c:v>0.9577</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.95269999999999999</c:v>
+                  <c:v>0.9607</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.95850000000000002</c:v>
+                  <c:v>0.96250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.96120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.96909999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.96560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.96889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.97009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.97140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.97309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.9738</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.97350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9738</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9617</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>0.96089999999999998</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.96419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.96619999999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.96789999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.96750000000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.96750000000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.96930000000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9677</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9647</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.96299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.96419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.96579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.96089999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.96030000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.95979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9617</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9647</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.96789999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.96989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="65">
+                  <c:v>0.95309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96730000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9708</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.96350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>0.96909999999999996</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97150000000000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.96919999999999995</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.96950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97109999999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97230000000000005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.9708</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.97170000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="75">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.97340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.97330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>0.97409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97219999999999995</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.97260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.97240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.97309999999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.97450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.97589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.97319999999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.97419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.97419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.97460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.9748</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.97550000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.97589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.97489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.97460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.97589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.97460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.97560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.97430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.97619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.97609999999999997</c:v>
-                </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.97540000000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97540000000000004</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>0.97519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>0.97770000000000001</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
+                  <c:v>0.97740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>0.97750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.97740000000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.97750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.97819999999999996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.97870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.97789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.97819999999999996</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.97770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.97760000000000002</c:v>
+                  <c:v>0.97819999999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.97770000000000001</c:v>
+                  <c:v>0.97799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97650000000000003</c:v>
+                  <c:v>0.97750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97850000000000004</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.97650000000000003</c:v>
+                  <c:v>0.97819999999999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>0.97829999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,304 +3080,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.85240000000000005</c:v>
+                  <c:v>0.86970000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.88660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91190000000000004</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91490000000000005</c:v>
+                  <c:v>0.91600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93659999999999999</c:v>
+                  <c:v>0.93979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92200000000000004</c:v>
+                  <c:v>0.92549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91920000000000002</c:v>
+                  <c:v>0.94030000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9415</c:v>
+                  <c:v>0.94379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9405</c:v>
+                  <c:v>0.94689999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9294</c:v>
+                  <c:v>0.95930000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94679999999999997</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95509999999999995</c:v>
+                  <c:v>0.96389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96230000000000004</c:v>
+                  <c:v>0.95330000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94879999999999998</c:v>
+                  <c:v>0.96279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9627</c:v>
+                  <c:v>0.95930000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95389999999999997</c:v>
+                  <c:v>0.97170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96579999999999999</c:v>
+                  <c:v>0.96640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9637</c:v>
+                  <c:v>0.9698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96630000000000005</c:v>
+                  <c:v>0.97150000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96240000000000003</c:v>
+                  <c:v>0.97189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97230000000000005</c:v>
+                  <c:v>0.97240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96779999999999999</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>0.96930000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97150000000000003</c:v>
+                  <c:v>0.96660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97570000000000001</c:v>
+                  <c:v>0.97629999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97719999999999996</c:v>
+                  <c:v>0.97360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97430000000000005</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97130000000000005</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97250000000000003</c:v>
+                  <c:v>0.98260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97899999999999998</c:v>
+                  <c:v>0.98129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.9748</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.98519999999999996</c:v>
+                  <c:v>0.9839</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.98380000000000001</c:v>
+                  <c:v>0.98580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.98499999999999999</c:v>
+                  <c:v>0.98450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98470000000000002</c:v>
+                  <c:v>0.98460000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.98440000000000005</c:v>
+                  <c:v>0.98640000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.98629999999999995</c:v>
+                  <c:v>0.98729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.98660000000000003</c:v>
+                  <c:v>0.98740000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.98309999999999997</c:v>
+                  <c:v>0.98839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98299999999999998</c:v>
+                  <c:v>0.98839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98219999999999996</c:v>
+                  <c:v>0.9869</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.98040000000000005</c:v>
+                  <c:v>0.98760000000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.98680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.97909999999999997</c:v>
+                  <c:v>0.99050000000000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.98050000000000004</c:v>
+                  <c:v>0.98260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.97989999999999999</c:v>
+                  <c:v>0.98250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.98640000000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.98099999999999998</c:v>
+                  <c:v>0.98750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.98640000000000005</c:v>
+                  <c:v>0.98950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.98809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.98499999999999999</c:v>
+                  <c:v>0.99029999999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.98629999999999995</c:v>
+                  <c:v>0.98909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.98819999999999997</c:v>
+                  <c:v>0.99029999999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99009999999999998</c:v>
+                  <c:v>0.99229999999999996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.98770000000000002</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.98740000000000006</c:v>
+                  <c:v>0.99019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.98919999999999997</c:v>
+                  <c:v>0.99129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98980000000000001</c:v>
+                  <c:v>0.99129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.98939999999999995</c:v>
+                  <c:v>0.99019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.9869</c:v>
+                  <c:v>0.98829999999999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99229999999999996</c:v>
+                  <c:v>0.98960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.9909</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98870000000000002</c:v>
+                  <c:v>0.99339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99070000000000003</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99329999999999996</c:v>
+                  <c:v>0.97440000000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>0.97140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.98019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.98980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9869</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>0.99150000000000005</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98970000000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.99180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.99180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.99050000000000005</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.99070000000000003</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.99380000000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.99129999999999996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.99219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.98970000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.99299999999999999</c:v>
-                </c:pt>
                 <c:pt idx="78">
+                  <c:v>0.99139999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.9899</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0.99409999999999998</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.99060000000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.99209999999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.99360000000000004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.99350000000000005</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.99309999999999998</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.99490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
+                  <c:v>0.99419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>0.99409999999999998</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.99360000000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.99360000000000004</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.99390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.99429999999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>0.99480000000000002</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="97">
+                  <c:v>0.99480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.99539999999999995</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.99390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.99239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.99370000000000003</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.995</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99329999999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.9919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6841,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6877,19 +6877,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0993999999999999</v>
+        <v>1.0647</v>
       </c>
       <c r="C2">
-        <v>0.80179999999999996</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="D2">
-        <v>0.77849999999999997</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="E2">
-        <v>0.8014</v>
+        <v>0.8075</v>
       </c>
       <c r="F2">
-        <v>0.85240000000000005</v>
+        <v>0.86970000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6898,19 +6898,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.43240000000000001</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="C3">
-        <v>0.87219999999999998</v>
+        <v>0.87290000000000001</v>
       </c>
       <c r="D3">
-        <v>0.87739999999999996</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="E3">
-        <v>0.86629999999999996</v>
+        <v>0.86860000000000004</v>
       </c>
       <c r="F3">
-        <v>0.88400000000000001</v>
+        <v>0.88660000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6919,19 +6919,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.32700000000000001</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="C4">
-        <v>0.87590000000000001</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="D4">
-        <v>0.85219999999999996</v>
+        <v>0.86890000000000001</v>
       </c>
       <c r="E4">
-        <v>0.86990000000000001</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="F4">
-        <v>0.91190000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6940,19 +6940,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.27850000000000003</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="C5">
-        <v>0.88149999999999995</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D5">
-        <v>0.86050000000000004</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="E5">
-        <v>0.87829999999999997</v>
+        <v>0.88729999999999998</v>
       </c>
       <c r="F5">
-        <v>0.91490000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,19 +6961,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2311</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="C6">
-        <v>0.89639999999999997</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="D6">
-        <v>0.86980000000000002</v>
+        <v>0.88649999999999995</v>
       </c>
       <c r="E6">
-        <v>0.89149999999999996</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="F6">
-        <v>0.93659999999999999</v>
+        <v>0.93979999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6982,19 +6982,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.22559999999999999</v>
+        <v>0.22650000000000001</v>
       </c>
       <c r="C7">
-        <v>0.90269999999999995</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="D7">
-        <v>0.89449999999999996</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="E7">
-        <v>0.89580000000000004</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="F7">
-        <v>0.92200000000000004</v>
+        <v>0.92549999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,19 +7003,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.22339999999999999</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="C8">
-        <v>0.90149999999999997</v>
+        <v>0.91790000000000005</v>
       </c>
       <c r="D8">
-        <v>0.90010000000000001</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="E8">
-        <v>0.89680000000000004</v>
+        <v>0.91310000000000002</v>
       </c>
       <c r="F8">
-        <v>0.91920000000000002</v>
+        <v>0.94030000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7024,19 +7024,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1943</v>
+        <v>0.1719</v>
       </c>
       <c r="C9">
-        <v>0.9173</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="D9">
-        <v>0.90549999999999997</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="E9">
-        <v>0.91190000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="F9">
-        <v>0.9415</v>
+        <v>0.94379999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7045,19 +7045,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2024</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="C10">
-        <v>0.91339999999999999</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="D10">
-        <v>0.89870000000000005</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="E10">
-        <v>0.9052</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="F10">
-        <v>0.9405</v>
+        <v>0.94689999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,19 +7066,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1978</v>
+        <v>0.15</v>
       </c>
       <c r="C11">
-        <v>0.91679999999999995</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="D11">
-        <v>0.91449999999999998</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="E11">
-        <v>0.90900000000000003</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="F11">
-        <v>0.9294</v>
+        <v>0.95930000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7087,19 +7087,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1658</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="C12">
-        <v>0.92679999999999996</v>
+        <v>0.9284</v>
       </c>
       <c r="D12">
-        <v>0.91169999999999995</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="E12">
-        <v>0.92149999999999999</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="F12">
-        <v>0.94679999999999997</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7108,19 +7108,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.14979999999999999</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9355</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="D13">
-        <v>0.92390000000000005</v>
+        <v>0.9254</v>
       </c>
       <c r="E13">
-        <v>0.93049999999999999</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="F13">
-        <v>0.95509999999999995</v>
+        <v>0.96389999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7129,19 +7129,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.14149999999999999</v>
+        <v>0.1341</v>
       </c>
       <c r="C14">
-        <v>0.93879999999999997</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="D14">
-        <v>0.92290000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E14">
-        <v>0.93179999999999996</v>
+        <v>0.9355</v>
       </c>
       <c r="F14">
-        <v>0.96230000000000004</v>
+        <v>0.95330000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7150,19 +7150,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.14749999999999999</v>
+        <v>0.12540000000000001</v>
       </c>
       <c r="C15">
-        <v>0.9385</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="D15">
-        <v>0.93840000000000001</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="E15">
-        <v>0.93149999999999999</v>
+        <v>0.93969999999999998</v>
       </c>
       <c r="F15">
-        <v>0.94879999999999998</v>
+        <v>0.96279999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7171,19 +7171,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.13009999999999999</v>
+        <v>0.1203</v>
       </c>
       <c r="C16">
-        <v>0.9425</v>
+        <v>0.94930000000000003</v>
       </c>
       <c r="D16">
-        <v>0.93200000000000005</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="E16">
-        <v>0.93720000000000003</v>
+        <v>0.94110000000000005</v>
       </c>
       <c r="F16">
-        <v>0.9627</v>
+        <v>0.95930000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7192,19 +7192,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.1293</v>
+        <v>0.1113</v>
       </c>
       <c r="C17">
-        <v>0.94159999999999999</v>
+        <v>0.95289999999999997</v>
       </c>
       <c r="D17">
-        <v>0.94189999999999996</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="E17">
-        <v>0.93710000000000004</v>
+        <v>0.94520000000000004</v>
       </c>
       <c r="F17">
-        <v>0.95389999999999997</v>
+        <v>0.97170000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7213,19 +7213,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.11600000000000001</v>
+        <v>0.1077</v>
       </c>
       <c r="C18">
-        <v>0.95130000000000003</v>
+        <v>0.95469999999999999</v>
       </c>
       <c r="D18">
-        <v>0.94220000000000004</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="E18">
-        <v>0.94230000000000003</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="F18">
-        <v>0.96579999999999999</v>
+        <v>0.96640000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,19 +7234,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1142</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C19">
-        <v>0.95199999999999996</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D19">
-        <v>0.94799999999999995</v>
+        <v>0.94989999999999997</v>
       </c>
       <c r="E19">
-        <v>0.94479999999999997</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="F19">
-        <v>0.9637</v>
+        <v>0.9698</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7255,19 +7255,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1055</v>
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="C20">
-        <v>0.95369999999999999</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="D20">
-        <v>0.94830000000000003</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="E20">
-        <v>0.94769999999999999</v>
+        <v>0.9526</v>
       </c>
       <c r="F20">
-        <v>0.96630000000000005</v>
+        <v>0.97150000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7276,19 +7276,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.10580000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C21">
-        <v>0.9536</v>
+        <v>0.96179999999999999</v>
       </c>
       <c r="D21">
-        <v>0.94989999999999997</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="E21">
-        <v>0.94740000000000002</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F21">
-        <v>0.96240000000000003</v>
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7297,19 +7297,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9.7600000000000006E-2</v>
+        <v>9.11E-2</v>
       </c>
       <c r="C22">
-        <v>0.95799999999999996</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="D22">
-        <v>0.94799999999999995</v>
+        <v>0.95620000000000005</v>
       </c>
       <c r="E22">
-        <v>0.95079999999999998</v>
+        <v>0.9536</v>
       </c>
       <c r="F22">
-        <v>0.97230000000000005</v>
+        <v>0.97240000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7318,19 +7318,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.6800000000000002E-2</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="C23">
-        <v>0.96409999999999996</v>
+        <v>0.96060000000000001</v>
       </c>
       <c r="D23">
-        <v>0.9667</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="E23">
-        <v>0.95550000000000002</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="F23">
-        <v>0.96779999999999999</v>
+        <v>0.97660000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7339,19 +7339,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.0499999999999997E-2</v>
+        <v>9.98E-2</v>
       </c>
       <c r="C24">
-        <v>0.96260000000000001</v>
+        <v>0.9577</v>
       </c>
       <c r="D24">
-        <v>0.95389999999999997</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="E24">
-        <v>0.95520000000000005</v>
+        <v>0.9506</v>
       </c>
       <c r="F24">
-        <v>0.97489999999999999</v>
+        <v>0.96930000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7360,19 +7360,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9.2399999999999996E-2</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="C25">
-        <v>0.96060000000000001</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="D25">
-        <v>0.95699999999999996</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="E25">
-        <v>0.95350000000000001</v>
+        <v>0.95369999999999999</v>
       </c>
       <c r="F25">
-        <v>0.97150000000000003</v>
+        <v>0.96660000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7381,19 +7381,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.1500000000000003E-2</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="C26">
-        <v>0.96450000000000002</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="D26">
-        <v>0.95660000000000001</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="E26">
-        <v>0.95709999999999995</v>
+        <v>0.94989999999999997</v>
       </c>
       <c r="F26">
-        <v>0.97570000000000001</v>
+        <v>0.97629999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7402,19 +7402,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.1299999999999997E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="C27">
-        <v>0.96640000000000004</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D27">
-        <v>0.95820000000000005</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="E27">
-        <v>0.95860000000000001</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="F27">
-        <v>0.97719999999999996</v>
+        <v>0.97360000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,19 +7423,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7.7799999999999994E-2</v>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="C28">
-        <v>0.96679999999999999</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="D28">
-        <v>0.96440000000000003</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="E28">
-        <v>0.95940000000000003</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="F28">
-        <v>0.97430000000000005</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7444,19 +7444,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8.4099999999999994E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="C29">
-        <v>0.96409999999999996</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="D29">
-        <v>0.96040000000000003</v>
+        <v>0.9617</v>
       </c>
       <c r="E29">
-        <v>0.95630000000000004</v>
+        <v>0.9577</v>
       </c>
       <c r="F29">
-        <v>0.97130000000000005</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7465,19 +7465,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.5500000000000002E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="C30">
-        <v>0.96140000000000003</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="D30">
-        <v>0.9536</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="E30">
-        <v>0.95269999999999999</v>
+        <v>0.9607</v>
       </c>
       <c r="F30">
-        <v>0.97250000000000003</v>
+        <v>0.98260000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,19 +7486,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7.9799999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C31">
-        <v>0.96599999999999997</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="D31">
-        <v>0.95630000000000004</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="E31">
-        <v>0.95850000000000002</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="F31">
-        <v>0.97899999999999998</v>
+        <v>0.98129999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7507,16 +7507,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7.3400000000000007E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="C32">
-        <v>0.96909999999999996</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="D32">
-        <v>0.96799999999999997</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="E32">
-        <v>0.96089999999999998</v>
+        <v>0.96120000000000005</v>
       </c>
       <c r="F32">
         <v>0.9748</v>
@@ -7528,19 +7528,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6.4600000000000005E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="C33">
-        <v>0.9728</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="D33">
-        <v>0.96079999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E33">
-        <v>0.96419999999999995</v>
+        <v>0.96260000000000001</v>
       </c>
       <c r="F33">
-        <v>0.98519999999999996</v>
+        <v>0.9839</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7549,19 +7549,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6.0600000000000001E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="C34">
-        <v>0.97389999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="D34">
-        <v>0.96689999999999998</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="E34">
-        <v>0.96619999999999995</v>
+        <v>0.9667</v>
       </c>
       <c r="F34">
-        <v>0.98380000000000001</v>
+        <v>0.98580000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7570,19 +7570,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5.7200000000000001E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="C35">
-        <v>0.97599999999999998</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="D35">
-        <v>0.97030000000000005</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="E35">
-        <v>0.96789999999999998</v>
+        <v>0.96660000000000001</v>
       </c>
       <c r="F35">
-        <v>0.98499999999999999</v>
+        <v>0.98450000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7591,19 +7591,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5.8099999999999999E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="C36">
-        <v>0.97529999999999994</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="D36">
-        <v>0.96870000000000001</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="E36">
-        <v>0.96750000000000003</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="F36">
-        <v>0.98470000000000002</v>
+        <v>0.98460000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7612,19 +7612,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5.7299999999999997E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="C37">
-        <v>0.97609999999999997</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="D37">
-        <v>0.97089999999999999</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="E37">
-        <v>0.96750000000000003</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="F37">
-        <v>0.98440000000000005</v>
+        <v>0.98640000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7633,19 +7633,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5.3400000000000003E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="C38">
-        <v>0.97719999999999996</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="D38">
-        <v>0.96989999999999998</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="E38">
-        <v>0.96930000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="F38">
-        <v>0.98629999999999995</v>
+        <v>0.98729999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7654,19 +7654,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5.3800000000000001E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="C39">
-        <v>0.9768</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="D39">
-        <v>0.96989999999999998</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="E39">
-        <v>0.96899999999999997</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="F39">
-        <v>0.98660000000000003</v>
+        <v>0.98740000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7675,19 +7675,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5.7000000000000002E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="C40">
-        <v>0.97619999999999996</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="D40">
-        <v>0.9718</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="E40">
-        <v>0.9677</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="F40">
-        <v>0.98309999999999997</v>
+        <v>0.98839999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7696,19 +7696,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6.5699999999999995E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="C41">
-        <v>0.97219999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="D41">
-        <v>0.96260000000000001</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="E41">
-        <v>0.9647</v>
+        <v>0.96970000000000001</v>
       </c>
       <c r="F41">
-        <v>0.98299999999999998</v>
+        <v>0.98839999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7717,19 +7717,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7.2400000000000006E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="C42">
-        <v>0.97050000000000003</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="D42">
-        <v>0.96120000000000005</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="E42">
-        <v>0.96299999999999997</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="F42">
-        <v>0.98219999999999996</v>
+        <v>0.9869</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7738,19 +7738,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6.4600000000000005E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="C43">
-        <v>0.97289999999999999</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="D43">
-        <v>0.9677</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="E43">
-        <v>0.96419999999999995</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="F43">
-        <v>0.98040000000000005</v>
+        <v>0.98760000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7759,19 +7759,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6.2E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="C44">
-        <v>0.97460000000000002</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="D44">
-        <v>0.97060000000000002</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="E44">
-        <v>0.96579999999999999</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="F44">
-        <v>0.98199999999999998</v>
+        <v>0.98680000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7780,19 +7780,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7.6499999999999999E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="C45">
-        <v>0.97019999999999995</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="D45">
-        <v>0.96309999999999996</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="E45">
-        <v>0.96089999999999998</v>
+        <v>0.9698</v>
       </c>
       <c r="F45">
-        <v>0.97909999999999997</v>
+        <v>0.99050000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,19 +7801,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7.5800000000000006E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="C46">
-        <v>0.96660000000000001</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="D46">
-        <v>0.95720000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="E46">
-        <v>0.96030000000000004</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="F46">
-        <v>0.98050000000000004</v>
+        <v>0.98260000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7822,19 +7822,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7.9000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C47">
-        <v>0.9677</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D47">
-        <v>0.9597</v>
+        <v>0.9698</v>
       </c>
       <c r="E47">
-        <v>0.95979999999999999</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="F47">
-        <v>0.97989999999999999</v>
+        <v>0.98250000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7843,19 +7843,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7.2700000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C48">
-        <v>0.96919999999999995</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D48">
-        <v>0.96489999999999998</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="E48">
-        <v>0.9617</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="F48">
-        <v>0.9768</v>
+        <v>0.98640000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7864,19 +7864,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6.3200000000000006E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="C49">
-        <v>0.97289999999999999</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="D49">
-        <v>0.96699999999999997</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="E49">
-        <v>0.9647</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="F49">
-        <v>0.98099999999999998</v>
+        <v>0.98750000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7885,19 +7885,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5.6099999999999997E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="C50">
-        <v>0.9768</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="D50">
-        <v>0.96899999999999997</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="E50">
-        <v>0.96789999999999998</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="F50">
-        <v>0.98640000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7906,16 +7906,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5.2200000000000003E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="C51">
-        <v>0.97719999999999996</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="D51">
-        <v>0.96679999999999999</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="E51">
-        <v>0.96989999999999998</v>
+        <v>0.9718</v>
       </c>
       <c r="F51">
         <v>0.98809999999999998</v>
@@ -7927,19 +7927,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5.3999999999999999E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="C52">
-        <v>0.97719999999999996</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="D52">
-        <v>0.9718</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E52">
-        <v>0.96909999999999996</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="F52">
-        <v>0.98499999999999999</v>
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,19 +7948,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C53">
-        <v>0.97940000000000005</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="D53">
-        <v>0.97540000000000004</v>
+        <v>0.97719999999999996</v>
       </c>
       <c r="E53">
-        <v>0.97150000000000003</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="F53">
-        <v>0.98629999999999995</v>
+        <v>0.98909999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7969,19 +7969,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5.1900000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C54">
-        <v>0.9778</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="D54">
-        <v>0.96740000000000004</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E54">
-        <v>0.96919999999999995</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="F54">
-        <v>0.98819999999999997</v>
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7990,19 +7990,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5.0799999999999998E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="C55">
-        <v>0.97899999999999998</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="D55">
-        <v>0.96689999999999998</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="E55">
-        <v>0.96950000000000003</v>
+        <v>0.9738</v>
       </c>
       <c r="F55">
-        <v>0.99009999999999998</v>
+        <v>0.99229999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8011,19 +8011,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4.6699999999999998E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="C56">
-        <v>0.98019999999999996</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="D56">
-        <v>0.97360000000000002</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="E56">
-        <v>0.97109999999999996</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="F56">
-        <v>0.98770000000000002</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8032,19 +8032,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="C57">
-        <v>0.98029999999999995</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D57">
-        <v>0.97570000000000001</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="E57">
-        <v>0.97230000000000005</v>
+        <v>0.97350000000000003</v>
       </c>
       <c r="F57">
-        <v>0.98740000000000006</v>
+        <v>0.99019999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8053,19 +8053,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4.82E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="C58">
-        <v>0.97960000000000003</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D58">
-        <v>0.97009999999999996</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="E58">
-        <v>0.9708</v>
+        <v>0.9738</v>
       </c>
       <c r="F58">
-        <v>0.98919999999999997</v>
+        <v>0.99129999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8074,19 +8074,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4.7899999999999998E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="C59">
-        <v>0.97940000000000005</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="D59">
-        <v>0.96909999999999996</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="E59">
-        <v>0.97099999999999997</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="F59">
-        <v>0.98980000000000001</v>
+        <v>0.99129999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8095,19 +8095,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4.6300000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C60">
-        <v>0.98089999999999999</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="D60">
-        <v>0.97250000000000003</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="E60">
-        <v>0.97170000000000001</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="F60">
-        <v>0.98939999999999995</v>
+        <v>0.99019999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8116,19 +8116,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4.1399999999999999E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="C61">
-        <v>0.98229999999999995</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="D61">
-        <v>0.98160000000000003</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="E61">
-        <v>0.97409999999999997</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="F61">
-        <v>0.9869</v>
+        <v>0.98829999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8137,19 +8137,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4.3900000000000002E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="C62">
-        <v>0.98129999999999995</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="D62">
-        <v>0.97030000000000005</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="E62">
-        <v>0.97219999999999995</v>
+        <v>0.97509999999999997</v>
       </c>
       <c r="F62">
-        <v>0.99229999999999996</v>
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8158,16 +8158,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4.3299999999999998E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="C63">
-        <v>0.98119999999999996</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="D63">
-        <v>0.97040000000000004</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="E63">
-        <v>0.97260000000000002</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="F63">
         <v>0.9909</v>
@@ -8179,19 +8179,19 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4.3900000000000002E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="C64">
-        <v>0.98229999999999995</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="D64">
-        <v>0.97789999999999999</v>
+        <v>0.97209999999999996</v>
       </c>
       <c r="E64">
-        <v>0.97240000000000004</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="F64">
-        <v>0.98870000000000002</v>
+        <v>0.99339999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8200,19 +8200,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4.1200000000000001E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="C65">
-        <v>0.98240000000000005</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="D65">
-        <v>0.97529999999999994</v>
+        <v>0.96189999999999998</v>
       </c>
       <c r="E65">
-        <v>0.97309999999999997</v>
+        <v>0.9617</v>
       </c>
       <c r="F65">
-        <v>0.99070000000000003</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8221,19 +8221,19 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3.8399999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C66">
-        <v>0.98360000000000003</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="D66">
-        <v>0.97309999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E66">
-        <v>0.97450000000000003</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="F66">
-        <v>0.99329999999999996</v>
+        <v>0.97440000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8242,19 +8242,19 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3.6400000000000002E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="C67">
-        <v>0.98399999999999999</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="D67">
-        <v>0.97760000000000002</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="E67">
-        <v>0.97589999999999999</v>
+        <v>0.95309999999999995</v>
       </c>
       <c r="F67">
-        <v>0.99150000000000005</v>
+        <v>0.97140000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8263,19 +8263,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4.2299999999999997E-2</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="C68">
-        <v>0.9829</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="D68">
-        <v>0.97719999999999996</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E68">
-        <v>0.97319999999999995</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="F68">
-        <v>0.98970000000000002</v>
+        <v>0.97170000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8284,19 +8284,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3.9699999999999999E-2</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="C69">
-        <v>0.98309999999999997</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="D69">
-        <v>0.97399999999999998</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="E69">
-        <v>0.97419999999999995</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="F69">
-        <v>0.99180000000000001</v>
+        <v>0.98450000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8305,19 +8305,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4.0399999999999998E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="C70">
-        <v>0.9829</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="D70">
-        <v>0.97289999999999999</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="E70">
-        <v>0.97389999999999999</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="F70">
-        <v>0.99180000000000001</v>
+        <v>0.98019999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8326,19 +8326,19 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3.9800000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="C71">
-        <v>0.98319999999999996</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="D71">
-        <v>0.97650000000000003</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="E71">
-        <v>0.97419999999999995</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="F71">
-        <v>0.99050000000000005</v>
+        <v>0.98360000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8347,19 +8347,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3.8399999999999997E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="C72">
-        <v>0.98340000000000005</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="D72">
-        <v>0.97819999999999996</v>
+        <v>0.96650000000000003</v>
       </c>
       <c r="E72">
-        <v>0.97460000000000002</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="F72">
-        <v>0.99070000000000003</v>
+        <v>0.99239999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8368,19 +8368,19 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3.7699999999999997E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="C73">
-        <v>0.98399999999999999</v>
+        <v>0.9798</v>
       </c>
       <c r="D73">
-        <v>0.97209999999999996</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="E73">
-        <v>0.9748</v>
+        <v>0.9708</v>
       </c>
       <c r="F73">
-        <v>0.99380000000000002</v>
+        <v>0.98980000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8389,19 +8389,19 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3.5700000000000003E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="C74">
-        <v>0.98419999999999996</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="D74">
-        <v>0.97709999999999997</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E74">
-        <v>0.97550000000000003</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="F74">
-        <v>0.99199999999999999</v>
+        <v>0.97660000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8410,19 +8410,19 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3.44E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="C75">
-        <v>0.98460000000000003</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="D75">
-        <v>0.98070000000000002</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="E75">
-        <v>0.97589999999999999</v>
+        <v>0.96130000000000004</v>
       </c>
       <c r="F75">
-        <v>0.99129999999999996</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8431,19 +8431,19 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3.73E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="C76">
-        <v>0.98419999999999996</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="D76">
-        <v>0.97319999999999995</v>
+        <v>0.96709999999999996</v>
       </c>
       <c r="E76">
-        <v>0.97489999999999999</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="F76">
-        <v>0.99399999999999999</v>
+        <v>0.98860000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8452,19 +8452,19 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3.6600000000000001E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="C77">
-        <v>0.98370000000000002</v>
+        <v>0.97889999999999999</v>
       </c>
       <c r="D77">
-        <v>0.97399999999999998</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="E77">
-        <v>0.97460000000000002</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="F77">
-        <v>0.99219999999999997</v>
+        <v>0.9869</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8473,19 +8473,19 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3.5700000000000003E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="C78">
-        <v>0.98350000000000004</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="D78">
-        <v>0.98180000000000001</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="E78">
-        <v>0.97589999999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="F78">
-        <v>0.98970000000000002</v>
+        <v>0.99080000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8494,19 +8494,19 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3.7499999999999999E-2</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="C79">
-        <v>0.9839</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="D79">
-        <v>0.97289999999999999</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="E79">
-        <v>0.97460000000000002</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="F79">
-        <v>0.99299999999999999</v>
+        <v>0.99150000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8515,19 +8515,19 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3.5999999999999997E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="C80">
-        <v>0.98460000000000003</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="D80">
-        <v>0.97219999999999995</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="E80">
-        <v>0.97560000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="F80">
-        <v>0.99409999999999998</v>
+        <v>0.99139999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8536,19 +8536,19 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3.8300000000000001E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="C81">
-        <v>0.98360000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="D81">
-        <v>0.97760000000000002</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="E81">
-        <v>0.97430000000000005</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="F81">
-        <v>0.99060000000000004</v>
+        <v>0.98760000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8557,19 +8557,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3.4700000000000002E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="C82">
-        <v>0.98460000000000003</v>
+        <v>0.9819</v>
       </c>
       <c r="D82">
-        <v>0.97889999999999999</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="E82">
-        <v>0.97619999999999996</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="F82">
-        <v>0.99209999999999998</v>
+        <v>0.9899</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8578,19 +8578,19 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3.44E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="C83">
-        <v>0.98460000000000003</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="D83">
-        <v>0.97529999999999994</v>
+        <v>0.9728</v>
       </c>
       <c r="E83">
-        <v>0.97609999999999997</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="F83">
-        <v>0.99360000000000004</v>
+        <v>0.99260000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8599,19 +8599,19 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3.5200000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C84">
-        <v>0.98519999999999996</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="D84">
-        <v>0.97570000000000001</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="E84">
-        <v>0.97599999999999998</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="F84">
-        <v>0.99350000000000005</v>
+        <v>0.99360000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8620,19 +8620,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3.3399999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="C85">
-        <v>0.9859</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="D85">
-        <v>0.97729999999999995</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="E85">
-        <v>0.9768</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="F85">
-        <v>0.99399999999999999</v>
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8641,19 +8641,19 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3.09E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="C86">
-        <v>0.9869</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="D86">
-        <v>0.98150000000000004</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E86">
-        <v>0.97770000000000001</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="F86">
-        <v>0.99309999999999998</v>
+        <v>0.99280000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8662,19 +8662,19 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3.0300000000000001E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="C87">
-        <v>0.98719999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D87">
-        <v>0.97709999999999997</v>
+        <v>0.9758</v>
       </c>
       <c r="E87">
-        <v>0.97750000000000004</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="F87">
-        <v>0.99490000000000001</v>
+        <v>0.99460000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8683,19 +8683,19 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3.2199999999999999E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="C88">
-        <v>0.98629999999999995</v>
+        <v>0.9869</v>
       </c>
       <c r="D88">
-        <v>0.97870000000000001</v>
+        <v>0.9788</v>
       </c>
       <c r="E88">
-        <v>0.97740000000000005</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="F88">
-        <v>0.99409999999999998</v>
+        <v>0.99429999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8704,19 +8704,19 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3.1399999999999997E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="C89">
         <v>0.98699999999999999</v>
       </c>
       <c r="D89">
-        <v>0.9798</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="E89">
-        <v>0.97750000000000004</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="F89">
-        <v>0.99360000000000004</v>
+        <v>0.99450000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8725,19 +8725,19 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3.0599999999999999E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="C90">
-        <v>0.98619999999999997</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="D90">
-        <v>0.97789999999999999</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="E90">
-        <v>0.97760000000000002</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F90">
-        <v>0.99360000000000004</v>
+        <v>0.99470000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8746,19 +8746,19 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2.8899999999999999E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="C91">
-        <v>0.98780000000000001</v>
+        <v>0.9869</v>
       </c>
       <c r="D91">
-        <v>0.9778</v>
+        <v>0.9768</v>
       </c>
       <c r="E91">
-        <v>0.97819999999999996</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="F91">
-        <v>0.996</v>
+        <v>0.99519999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8767,19 +8767,19 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2.8199999999999999E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="C92">
-        <v>0.98760000000000003</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="D92">
-        <v>0.98089999999999999</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="E92">
-        <v>0.97870000000000001</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="F92">
-        <v>0.99390000000000001</v>
+        <v>0.99409999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8788,19 +8788,19 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2.98E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="C93">
-        <v>0.98709999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D93">
-        <v>0.97989999999999999</v>
+        <v>0.9788</v>
       </c>
       <c r="E93">
-        <v>0.97789999999999999</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="F93">
-        <v>0.99429999999999996</v>
+        <v>0.99419999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8809,19 +8809,19 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2.92E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="C94">
-        <v>0.98699999999999999</v>
+        <v>0.9869</v>
       </c>
       <c r="D94">
-        <v>0.97829999999999995</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="E94">
-        <v>0.97819999999999996</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="F94">
-        <v>0.99480000000000002</v>
+        <v>0.99409999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8830,19 +8830,19 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3.0200000000000001E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="C95">
-        <v>0.9869</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="D95">
-        <v>0.97609999999999997</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="E95">
         <v>0.97770000000000001</v>
       </c>
       <c r="F95">
-        <v>0.99539999999999995</v>
+        <v>0.99450000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8851,19 +8851,19 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>3.0200000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C96">
-        <v>0.98640000000000005</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="D96">
-        <v>0.97789999999999999</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="E96">
-        <v>0.97760000000000002</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="F96">
-        <v>0.99390000000000001</v>
+        <v>0.99580000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8872,19 +8872,19 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3.1099999999999999E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="C97">
-        <v>0.98619999999999997</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="D97">
-        <v>0.9829</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="E97">
-        <v>0.97770000000000001</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F97">
-        <v>0.99239999999999995</v>
+        <v>0.99509999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8893,19 +8893,19 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3.2800000000000003E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="C98">
-        <v>0.98499999999999999</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="D98">
-        <v>0.97619999999999996</v>
+        <v>0.9798</v>
       </c>
       <c r="E98">
-        <v>0.97650000000000003</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="F98">
-        <v>0.99370000000000003</v>
+        <v>0.99480000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,19 +8914,19 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3.2000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C99">
-        <v>0.98580000000000001</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="D99">
-        <v>0.97409999999999997</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="E99">
-        <v>0.9768</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="F99">
-        <v>0.995</v>
+        <v>0.99480000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8935,19 +8935,19 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3.3300000000000003E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="C100">
-        <v>0.98529999999999995</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D100">
-        <v>0.97650000000000003</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="E100">
-        <v>0.97650000000000003</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="F100">
-        <v>0.99329999999999996</v>
+        <v>0.99529999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8956,19 +8956,19 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3.4700000000000002E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C101">
-        <v>0.98529999999999995</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="D101">
-        <v>0.98119999999999996</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="E101">
-        <v>0.97660000000000002</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="F101">
-        <v>0.9919</v>
+        <v>0.99539999999999995</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
